--- a/Excel/boundary_snap_guides.xlsx
+++ b/Excel/boundary_snap_guides.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,180 +9,168 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>Boundary Snap Guides - Audacity Manual</t>
+  </si>
+  <si>
+    <t>Boundary Snap Guides</t>
+  </si>
+  <si>
+    <t>From Audacity Development Manual</t>
+  </si>
+  <si>
+    <t>Jump to: navigation, search</t>
+  </si>
+  <si>
+    <t>Boundary Snap Guides (or "Snap Guides" for short) make it easy to draw a selection that starts or ends at a physical boundary like a point or region label or a clip inside the track. Snap Guides also let you exactly place the cursor at such a boundary.When the selection or cursor exactly aligns with the boundary, the Snap Guide appears as a yellow vertical line at the point of alignment.</t>
+  </si>
+  <si>
+    <t>How Snap Guides work</t>
+  </si>
+  <si>
+    <t>When you take any of the following actions:</t>
+  </si>
+  <si>
+    <t>Create a selection with the mouse</t>
+  </si>
+  <si>
+    <t>Modify the selection boundaries with the mouse</t>
+  </si>
+  <si>
+    <t>Time Shift a  track or clip by dragging</t>
+  </si>
+  <si>
+    <t>then the selection boundary (or the boundary of the Time Shifted track or clip) will snap to the closest of the following physical boundaries:</t>
+  </si>
+  <si>
+    <t>The start or end of a track or clip</t>
+  </si>
+  <si>
+    <t>The start or end of a region label</t>
+  </si>
+  <si>
+    <t>The time position represented by a point label</t>
+  </si>
+  <si>
+    <t>Time zero (0 on the Timeline).</t>
+  </si>
+  <si>
+    <t>Additionally, clicking close to one of the above boundaries will automatically snap the click to the exact point of that boundary, moving the cursor position to the boundary.</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>In the image below, a clip in the "Guest" track is being dragged leftwards with the mouse, as shown by the  Time Shift Tool mouse pointer. When the clip reaches the right-hand boundary of the second clip in the track above, a vertical yellow Snap Guide line appears through all the tracks, showing the position of the snap boundary. Once this Snap Guide is visible we can release the mouse and the dragged clip will be perfectly aligned with the one above:</t>
+  </si>
+  <si>
+    <t>Snap Guides let you easily select from one physical boundary to another. In the image below we changed toSelection Tool. We can now hover the mouse anywhere close to the boundary of any clip, so that clicking at that point snaps the cursor to exactly the boundary of that clip. In the image, we clicked to snap the cursor to the left edge of the third clip in the "Host" track, then dragged the selection until it snapped to exactly the right edge of the third clip in the "Guest" track. We now see two yellow vertical lines corresponding to the boundaries we are snapping to, again extending through all tracks in the project.</t>
+  </si>
+  <si>
+    <t>The example below shows using Snap Guide to align the cursor with a point label. Using Selection Tool, we hovered then clicked at a point approximately close to the "02" label. Although we were zoomed a long way out, the click snapped to the label position, moving the cursor to exactly that point as indicated by the yellow Snap Guide line in the audio track above. Similarly, you can click to snap to either boundary of a region label.</t>
+  </si>
+  <si>
+    <t>If there are two boundaries very close to one another and Audacity cannot tell which is appropriate, Audacity will not snap to either. To snap to one of them, zoom in so you can clearly position the mouse closer to one boundary than the other.</t>
+  </si>
+  <si>
+    <t>Snap Guides are distinct from the Snap-To checkbox in Selection Toolbar which snaps selection edges (or the cursor) to a chosen unit of time.</t>
+  </si>
+  <si>
+    <t>If "Snap-To" in Selection Toolbar is enabled, mouse-dragged selections and mouse clicks will only snap to the chosen unit of time and not to physical boundaries (unless a boundary is already aligned with the chosen unit of time).</t>
+  </si>
+  <si>
+    <t>A track or clip can still be time-shifted to any location even if Snap-To is enabled, so Snap Guides will always appear when time-shifting towards a physical boundary.</t>
+  </si>
+  <si>
+    <t>सीमा स्नॅप मार्गदर्शन - ओड्यासिटी माहिती पुस्तिका</t>
+  </si>
+  <si>
+    <t>सीमा स्नॅप मार्गदर्शक</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहिती पुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>येथे जा: सुचालन , शोध</t>
+  </si>
+  <si>
+    <t>सीमारेषा स्नॅप मार्गदर्शक (किंवा "थोडक्यात" स्नॅप मार्गदर्शक ") ने एखादी बिंदू किंवा प्रदेश नावपट्टी किंवा गीतपट्टाच्या आत असलेल्या फीत सारख्या शारीरिक सीमेवरून प्रारंभ होणारी किंवा शेवटची निवड काढणे सुलभ करते. स्नॅप मार्गदर्शक देखील आपल्याला अशा हद्दीवर अचूक कर्सर ठेवू देतात.जेव्हा निवड किंवा कर्सर सीमा बरोबर अचूकपणे संरेखित होते तेव्हा संरेखनाच्या बिंदूवर स्नॅप मार्गदर्शक पिवळ्या उभ्या रेषाप्रमाणे दिसून येते.</t>
+  </si>
+  <si>
+    <t>स्नॅप मार्गदर्शक कसे कार्य करतात</t>
+  </si>
+  <si>
+    <t>जेव्हा आपण पुढील पैकी कोणतीही क्रिया करता:</t>
+  </si>
+  <si>
+    <t>माउसने एक निवड तयार करा</t>
+  </si>
+  <si>
+    <t>माऊसने निवड सीमा सुधारित करा</t>
+  </si>
+  <si>
+    <t>वेळ पाळी एक   गीतपट्टा किंवा फीत ओढून</t>
+  </si>
+  <si>
+    <t>नंतर निवड सीमा (किंवा वेळ पाळी गीतपट्टा किंवा फीतची सीमा) खालील शारीरिक सीमांच्या सर्वात जवळच्या ठिकाणी जाईल:</t>
+  </si>
+  <si>
+    <t>गीतपट्टा किंवा फीतचा प्रारंभ किंवा अंत</t>
+  </si>
+  <si>
+    <t>प्रदेश नावपट्टीची सुरूवात किंवा शेवट</t>
+  </si>
+  <si>
+    <t>बिंदू नावपट्टीद्वारे दर्शविलेले वेळ स्थिती</t>
+  </si>
+  <si>
+    <t>वेळ शून्य ( वेळेवर 0 )</t>
+  </si>
+  <si>
+    <t>याव्यतिरिक्त, वरीलपैकी एका सीमेजवळ क्लिक केल्याने आपोआपच क्लिक त्या सीमेच्या अचूक बिंदूवर जाईल आणि कर्सर स्थानास हद्दीत स्थानांतरित करेल.</t>
+  </si>
+  <si>
+    <t>उदाहरणे</t>
+  </si>
+  <si>
+    <t>खाली दिलेल्या प्रतिमेत,  वेळ पाळी साधन माउस बिंदूद्वारे दर्शविल्याप्रमाणे, "अतिथी" गीतपट्टामधील एक फीत माऊससह डावीकडे ड्रॅग केली जात आहे . जेव्हा वरील गीतपट्टामधील फीत दुसर्‍या फीतच्या उजवीकडील सीमेवर पोहोचते तेव्हा स्नॅप सीमेची स्थिती दर्शविणारी एक उभ्या पिवळ्या स्नॅप मार्गदर्शन रेषा सर्व गीतपट्टामधून दिसते. एकदा हे स्नॅप मार्गदर्शन दृश्यमान झाल्यास आम्ही माउस सोडू शकू आणि ड्रॅग फीत वरील चित्रासह पूर्णपणे संरेखित होईल:</t>
+  </si>
+  <si>
+    <t>स्नॅप मार्गदर्शक आपल्यास एका शारीरिक सीमेवरून दुसर्‍या शारीरिक सीमेवर सहजपणे निवड करू देतात. खाली दिलेल्या प्रतिमेत आम्ही निवड साधन मध्ये बदलले . आता आम्ही आपल्यास त्वरित करू शकता मागेपुढे करणे माउस कुठेही बंद कोणत्याही फीत आणि हा शानदार चौकार, त्या वेळी क्लिक करणे कर्सर स्नॅप त्यामुळे नक्की की फीत सीमा. प्रतिमेमध्ये, आम्ही "होस्ट" गीतपट्टामधील तिसऱ्या फीतच्या डाव्या काठावर कर्सर स्नॅप करण्यासाठी क्लिक केले, त्यानंतर निवड "अतिथी" गीतपट्टामधील तिसर्‍या फीतच्या उजव्या काठावर तोपर्यंत ड्रॅग केली. आम्ही आता प्रकल्पात सर्व गीतपट्टावरुन विस्तारत ज्या पिशव्या उभ्या करीत आहोत त्या सीमांशी संबंधित दोन पिवळी उभ्या रेषा आपल्याला दिसतील.</t>
+  </si>
+  <si>
+    <t>बिंदू नावपट्टीसह कर्सर संरेखित करण्यासाठी स्नॅप मार्गदर्शन वापरुन खाली दिलेली उदाहरणे दाखविली. निवड साधनचा वापर करून , आम्ही जवळजवळ "02" नावपट्टीच्या जवळच्या बिंदूवर क्लिक केले आणि मग त्यावर क्लिक केले. जरी आम्ही खूप लांब दृशआकार झालो होतो, तरीही क्लिक ध्वनी गीतपट्टामधील पिवळ्या स्नॅप मार्गदर्शन रेषाद्वारे दर्शविल्यानुसार कर्सर त्या बिंदूकडे नेऊन नावपट्टी स्थानावर गेला. त्याचप्रमाणे, आपण प्रदेश नावपट्टीच्या सीमेवर स्नॅप करण्यासाठी क्लिक करू शकता.</t>
+  </si>
+  <si>
+    <t>जर दोन सीमा एकमेकांच्या अगदी जवळ असल्या आणि ओड्यासिटी योग्य आहे हे सांगू शकत नाही, तर ओड्यासिटी दोन्हीपैकी एक होणार नाही. त्यापैकी एकावर स्नॅप करण्यासाठी, दृश्य आकार वाढवा जेणेकरुन आपण स्पष्टपणे माऊस एका सीमेच्या दुसर्‍या सीमेच्या जवळ स्पष्टपणे स्थित करू शकता.</t>
+  </si>
+  <si>
+    <t>स्नॅप मार्गदर्शक पासून भिन्न आहेत स्नॅप-करण्यासाठी बॉक्स निवड साधनपट्टी निवडलेल्या निवड कडा (किंवा कर्सर) स्नॅप जे वेळ एकक .</t>
+  </si>
+  <si>
+    <t>निवड साधनपट्टीमधील "स्नॅप-टू" सक्षम केल्यास, माऊस-ड्रॅग निवडी आणि माऊस क्लिक केवळ निवडलेल्या वेळेवर स्नॅप करतील आणि भौतिक सीमांवर नाही (जोपर्यंत निवडलेल्या वेळेच्या मर्यादा आधीपासूनच संरेखित केली जात नाही).</t>
+  </si>
+  <si>
+    <t>एखादा गीतपट्टा किंवा फीत कोणत्याही ठिकाणी स्थानांतरित केली जाऊ शकते जरी स्नॅप-टू सक्षम केलेले असले तरीही, जेव्हा भौतिक सीमारेषेकडे वेळ सरकत असेल तेव्हा स्नॅप मार्गदर्शक नेहमीच दिसतील.</t>
+  </si>
   <si>
     <t>English</t>
   </si>
   <si>
     <t>Marathi</t>
-  </si>
-  <si>
-    <t>Boundary Snap Guides - Audacity Manual</t>
-  </si>
-  <si>
-    <t>Boundary Snap Guides</t>
-  </si>
-  <si>
-    <t>From Audacity Development Manual</t>
-  </si>
-  <si>
-    <t>Jump to: navigation, search</t>
-  </si>
-  <si>
-    <t>Boundary Snap Guides (or "Snap Guides" for short) make it easy to draw a selection that starts or ends at a physical boundary like a point or region label or a clip inside the track. Snap Guides also let you exactly place the cursor at such a boundary.When the selection or cursor exactly aligns with the boundary, the Snap Guide appears as a yellow vertical line at the point of alignment.</t>
-  </si>
-  <si>
-    <t>How Snap Guides work</t>
-  </si>
-  <si>
-    <t>When you take any of the following actions:</t>
-  </si>
-  <si>
-    <t>Create a selection with the mouse</t>
-  </si>
-  <si>
-    <t>Modify the selection boundaries with the mouse</t>
-  </si>
-  <si>
-    <t>Time Shift a</t>
-  </si>
-  <si>
-    <t>track or clip by dragging</t>
-  </si>
-  <si>
-    <t>then the selection boundary (or the boundary of the Time Shifted track or clip) will snap to the closest of the following physical boundaries:</t>
-  </si>
-  <si>
-    <t>The start or end of a track or clip</t>
-  </si>
-  <si>
-    <t>The start or end of a region label</t>
-  </si>
-  <si>
-    <t>The time position represented by a point label</t>
-  </si>
-  <si>
-    <t>Time zero (0 on the Timeline).</t>
-  </si>
-  <si>
-    <t>Additionally, clicking close to one of the above boundaries will automatically snap the click to the exact point of that boundary, moving the cursor position to the boundary.</t>
-  </si>
-  <si>
-    <t>Examples</t>
-  </si>
-  <si>
-    <t>In the image below, a clip in the "Guest" track is being dragged leftwards with the mouse, as shown by the</t>
-  </si>
-  <si>
-    <t>Time Shift Tool mouse pointer. When the clip reaches the right-hand boundary of the second clip in the track above, a vertical yellow Snap Guide line appears through all the tracks, showing the position of the snap boundary. Once this Snap Guide is visible we can release the mouse and the dragged clip will be perfectly aligned with the one above:</t>
-  </si>
-  <si>
-    <t>Snap Guides let you easily select from one physical boundary to another. In the image below we changed toSelection Tool. We can now hover the mouse anywhere close to the boundary of any clip, so that clicking at that point snaps the cursor to exactly the boundary of that clip. In the image, we clicked to snap the cursor to the left edge of the third clip in the "Host" track, then dragged the selection until it snapped to exactly the right edge of the third clip in the "Guest" track. We now see two yellow vertical lines corresponding to the boundaries we are snapping to, again extending through all tracks in the project.</t>
-  </si>
-  <si>
-    <t>The example below shows using Snap Guide to align the cursor with a point label. Using Selection Tool, we hovered then clicked at a point approximately close to the "02" label. Although we were zoomed a long way out, the click snapped to the label position, moving the cursor to exactly that point as indicated by the yellow Snap Guide line in the audio track above. Similarly, you can click to snap to either boundary of a region label.</t>
-  </si>
-  <si>
-    <t>If there are two boundaries very close to one another and Audacity cannot tell which is appropriate, Audacity will not snap to either. To snap to one of them, zoom in so you can clearly position the mouse closer to one boundary than the other.</t>
-  </si>
-  <si>
-    <t>Snap Guides are distinct from the Snap-To checkbox in Selection Toolbar which snaps selection edges (or the cursor) to a chosen unit of time.</t>
-  </si>
-  <si>
-    <t>If "Snap-To" in Selection Toolbar is enabled, mouse-dragged selections and mouse clicks will only snap to the chosen unit of time and not to physical boundaries (unless a boundary is already aligned with the chosen unit of time).</t>
-  </si>
-  <si>
-    <t>A track or clip can still be time-shifted to any location even if Snap-To is enabled, so Snap Guides will always appear when time-shifting towards a physical boundary.</t>
-  </si>
-  <si>
-    <t>बाउंड्री स्नॅप गाइड - ऑडेसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>सीमा स्नॅप मार्गदर्शक</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>सीमारेषा स्नॅप मार्गदर्शक (किंवा "थोडक्यात" स्नॅप मार्गदर्शक ") ने एखादी बिंदू किंवा प्रदेश लेबल किंवा ट्रॅकच्या आत असलेल्या क्लिपसारख्या शारीरिक सीमेवरून प्रारंभ होणारी किंवा शेवटची निवड काढणे सुलभ करते. स्नॅप गाइड्स आपल्याला अशा सीमारेषेवर अगदी अचूक कर्सर ठेवू देतात. जेव्हा निवड किंवा कर्सर सीमा सह अचूकपणे संरेखित होते तेव्हा संरेखनाच्या बिंदूवर स्नॅप मार्गदर्शक पिवळ्या उभ्या रेषाप्रमाणे दिसून येईल.</t>
-  </si>
-  <si>
-    <t>स्नॅप मार्गदर्शक कसे कार्य करतात</t>
-  </si>
-  <si>
-    <t>आपण पुढील पैकी कोणतीही क्रिया करता तेव्हा:</t>
-  </si>
-  <si>
-    <t>माउसने एक निवड तयार करा</t>
-  </si>
-  <si>
-    <t>माऊससह निवड सीमा सुधारित करा</t>
-  </si>
-  <si>
-    <t>टाइम शिफ्ट अ</t>
-  </si>
-  <si>
-    <t>ड्रॅग करून ट्रॅक किंवा क्लिप</t>
-  </si>
-  <si>
-    <t>नंतर निवड सीमा (किंवा टाइम शिफ्ट ट्रॅक किंवा क्लिपची सीमा) खालील शारीरिक सीमांच्या सर्वात जवळच्या ठिकाणी जाईल:</t>
-  </si>
-  <si>
-    <t>ट्रॅक किंवा क्लिपचा प्रारंभ किंवा अंत</t>
-  </si>
-  <si>
-    <t>प्रदेश लेबलची सुरूवात किंवा शेवट</t>
-  </si>
-  <si>
-    <t>बिंदू लेबलद्वारे दर्शविलेले वेळ स्थिती</t>
-  </si>
-  <si>
-    <t>वेळ शून्य (टाइमलाइनवर 0)</t>
-  </si>
-  <si>
-    <t>याव्यतिरिक्त, वरीलपैकी एका सीमेजवळ क्लिक केल्याने आपोआपच क्लिक त्या सीमेच्या अचूक बिंदूवर जाईल आणि कर्सर स्थानास हद्दीत स्थानांतरित करेल.</t>
-  </si>
-  <si>
-    <t>उदाहरणे</t>
-  </si>
-  <si>
-    <t>खाली दिलेल्या प्रतिमेत, "अतिथी" ट्रॅकमधील क्लिप माउसने डावीकडील ड्रॅग केली जात आहे, जसे की</t>
-  </si>
-  <si>
-    <t>टाइम शिफ्ट टूल माउस पॉईंटर जेव्हा वरील ट्रॅकमधील क्लिप दुसर्‍या क्लिपच्या उजवीकडील सीमेवर पोहोचते तेव्हा स्नॅप सीमेची स्थिती दर्शविणारी उभ्या पिवळ्या स्नॅप गाइड लाइन सर्व ट्रॅकमधून दिसते. एकदा हे स्नॅप गाइड दृश्यमान झाल्यास आम्ही माउस सोडू शकू आणि ड्रॅग क्लिप वरील प्रमाणे योग्यरित्या संरेखित होईल:</t>
-  </si>
-  <si>
-    <t>स्नॅप मार्गदर्शक आपल्याला एका शारिरीक हद्दीतून दुसर्‍या शरीरात सहजपणे निवडू देतात. खाली दिलेल्या प्रतिमेत आम्ही सिलेक्शन टूल मध्ये बदलले. आम्ही आता कोणत्याही क्लिपच्या सीमेजवळ माउस फिरवू शकतो, जेणेकरून त्या ठिकाणी क्लिक केल्यास कर्सर त्या क्लिपच्या सीमेपर्यंत जाईल. प्रतिमेमध्ये, आम्ही "होस्ट" ट्रॅकमधील तिस third्या क्लिपच्या डाव्या काठावर कर्सर स्नॅप करण्यासाठी क्लिक केले, त्यानंतर निवड "अतिथी" ट्रॅकमधील तिसर्‍या क्लिपच्या उजव्या काठावर तोपर्यंत ड्रॅग केली. आम्ही आता प्रकल्पातील सर्व ट्रॅकवरुन विस्तारत ज्या पिशव्या उभ्या करीत आहोत त्या सीमांशी संबंधित दोन पिवळी उभ्या रेषा आपल्याला दिसतील.</t>
-  </si>
-  <si>
-    <t>पॉईंट लेबलसह कर्सर संरेखित करण्यासाठी स्नॅप गाइड वापरुन खाली दिलेली उदाहरणे दाखविली. सिलेक्शन टूलचा वापर करून, आम्ही जवळजवळ "02" लेबलच्या जवळच्या बिंदूवर क्लिक केले आणि मग त्यावर क्लिक केले. जरी आम्ही खूप लांब झूम झालो होतो, तरीही क्लिक ऑडिओ ट्रॅकमधील पिवळ्या स्नॅप गाइड लाइनद्वारे दर्शविल्यानुसार कर्सर त्या बिंदूकडे नेऊन लेबल स्थानावर गेले. त्याचप्रमाणे, आपण प्रदेश लेबलच्या सीमेवर स्नॅप करण्यासाठी क्लिक करू शकता.</t>
-  </si>
-  <si>
-    <t>जर तेथे दोन सीमा एकमेकांच्या अगदी जवळ असतील आणि ऑडॅटीटी योग्य नाही हे सांगू शकत नाही, तर ऑडॅसिटी दोन्हीपैकी एक होणार नाही. त्यापैकी एकावर स्नॅप करण्यासाठी, झूम वाढवा जेणेकरुन आपण स्पष्टपणे माऊस एका सीमेच्या दुसर्‍या सीमेच्या जवळ स्पष्टपणे स्थित करू शकता.</t>
-  </si>
-  <si>
-    <t>निवड टूलबारमधील स्नॅप-टू चेकबॉक्सपेक्षा स्नॅप मार्गदर्शक वेगळे आहेत जे निवडलेल्या काठावर (किंवा कर्सर) निवडलेल्या वेळेवर स्नॅप करतात.</t>
-  </si>
-  <si>
-    <t>निवड टूलबारमधील "स्नॅप-टू" सक्षम केल्यास, माऊस-ड्रॅग निवडी आणि माऊस क्लिक केवळ निवडलेल्या वेळेवर स्नॅप करतील आणि भौतिक सीमांवर नाही (जोपर्यंत निवडलेल्या वेळेच्या मर्यादा आधीपासूनच संरेखित केली जात नाही).</t>
-  </si>
-  <si>
-    <t>एखादा ट्रॅक किंवा क्लिप कोणत्याही ठिकाणी स्थानांतरित केली जाऊ शकते जरी स्नॅप-टू सक्षम केलेले असले तरीही, जेव्हा भौतिक हद्दीकडे वेळ सरकत असेल तेव्हा स्नॅप मार्गदर्शक नेहमीच दिसतील.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,10 +222,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -245,6 +236,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -323,6 +319,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -357,6 +354,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,305 +530,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="94.140625" customWidth="1"/>
+    <col min="2" max="2" width="101.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="20" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
